--- a/doc/task06/Scrum_Team_White_V3.xlsx
+++ b/doc/task06/Scrum_Team_White_V3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrkun\MagentaCLOUD\Weiterbildung\BFH Informatik\4. Semester\Softwareengineering and Design\ch.bfh.bti7081.s2019.white\doc\task06\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0F0738-0389-4155-9DCF-0DEA26CCD9F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -12,22 +18,22 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -347,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -727,20 +733,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.25" customHeight="1">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -748,7 +754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -756,7 +762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -764,7 +770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -772,12 +778,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -785,7 +791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -793,7 +799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -812,26 +818,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -857,7 +863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="42">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -880,7 +886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="56">
+    <row r="3" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -906,7 +912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="42">
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -932,7 +938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42">
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -958,7 +964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28">
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -984,7 +990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42">
+    <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1010,7 +1016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="70">
+    <row r="8" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1048,31 +1054,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="39.1796875" style="7" customWidth="1"/>
     <col min="5" max="5" width="19" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="7"/>
+    <col min="6" max="6" width="10.36328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="7.1796875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="56">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="42">
+    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1.2</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="42">
+    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1.3</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42">
+    <row r="5" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1.4</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="42">
+    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1.5</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28">
+    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>1.6</v>
       </c>
@@ -1293,7 +1299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="42">
+    <row r="8" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>1.7</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="42">
+    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1.8</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="42">
+    <row r="10" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>1.9</v>
       </c>
@@ -1389,7 +1395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="28">
+    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>101</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>78</v>
       </c>
@@ -1453,7 +1459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="56">
+    <row r="13" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>85</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>88</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>102</v>
       </c>
@@ -1540,7 +1546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="56">
+    <row r="16" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>104</v>
       </c>
@@ -1559,6 +1565,9 @@
       <c r="F16" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="G16" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="H16" s="7" t="s">
         <v>6</v>
       </c>
@@ -1569,20 +1578,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="4:9" ht="28">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D17" s="2"/>
       <c r="I17" s="7">
         <f>SUM(I2:I16)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="4:9">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="4:9">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="4:9">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D20" s="2"/>
     </row>
   </sheetData>
@@ -1597,21 +1606,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.5" customHeight="1">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1625,7 +1634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1639,7 +1648,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/task06/Scrum_Team_White_V3.xlsx
+++ b/doc/task06/Scrum_Team_White_V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrkun\MagentaCLOUD\Weiterbildung\BFH Informatik\4. Semester\Softwareengineering and Design\ch.bfh.bti7081.s2019.white\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0F0738-0389-4155-9DCF-0DEA26CCD9F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECECB61-6AF7-4CA5-B09D-BE1E57F84586}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -822,7 +822,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -876,8 +876,11 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
       <c r="F2" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -1057,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
